--- a/database/industries/bargh/bemoto/product/monthly_seprated.xlsx
+++ b/database/industries/bargh/bemoto/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\bargh\bemoto\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF96227-7F57-4649-9731-3AFF2AAEDF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B55919-A3FE-40DA-9C3C-348E322E9156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/bargh/bemoto/product/monthly_seprated.xlsx
+++ b/database/industries/bargh/bemoto/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="91">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3336,8 +3336,8 @@
       <c r="W11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="13" t="s">
-        <v>58</v>
+      <c r="X11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y11" s="13" t="n">
         <v>0</v>
@@ -3357,8 +3357,8 @@
       <c r="AD11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" s="13" t="n">
-        <v>0</v>
+      <c r="AE11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF11" s="13" t="s">
         <v>58</v>
@@ -3387,8 +3387,8 @@
       <c r="AN11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="13" t="s">
-        <v>58</v>
+      <c r="AO11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP11" s="13" t="n">
         <v>0</v>
@@ -3495,98 +3495,98 @@
       <c r="W12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X12" s="16" t="s">
-        <v>58</v>
+      <c r="X12" s="16" t="n">
+        <v>78380</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>78380</v>
+        <v>80940</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>80940</v>
+        <v>87120</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>87120</v>
+        <v>82600</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>82600</v>
+        <v>87940</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>87940</v>
+        <v>94572</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>94572</v>
+        <v>65480</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>65480</v>
+        <v>77320</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>77320</v>
+        <v>69060</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>69060</v>
+        <v>73960</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>73960</v>
+        <v>28180</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>28180</v>
+        <v>62680</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>62680</v>
+        <v>50380</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>50380</v>
+        <v>75240</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>75240</v>
+        <v>78780</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>78780</v>
+        <v>83840</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>83840</v>
+        <v>53100</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>53100</v>
+        <v>58400</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>58400</v>
+        <v>41840</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>41840</v>
+        <v>60160</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>60160</v>
+        <v>87040</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>87040</v>
+        <v>71460</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>71460</v>
+        <v>54880</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>54880</v>
+        <v>55708</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>55708</v>
+        <v>56360</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>56360</v>
+        <v>82858</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>82858</v>
+        <v>80400</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>80400</v>
+        <v>74420</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>74420</v>
+        <v>79825</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>79825</v>
+        <v>86011</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>90331</v>
+        <v>54224</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,98 +3654,98 @@
       <c r="W13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X13" s="13" t="s">
-        <v>58</v>
+      <c r="X13" s="13" t="n">
+        <v>17303</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>17303</v>
+        <v>17329</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>17329</v>
+        <v>21615</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>21615</v>
+        <v>17570</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>17570</v>
+        <v>20098</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>20098</v>
+        <v>17153</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>17153</v>
+        <v>8571</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>8571</v>
+        <v>18289</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>18289</v>
+        <v>17938</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>17938</v>
+        <v>17707</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>17707</v>
+        <v>6506</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>6506</v>
+        <v>13382</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>13382</v>
+        <v>14299</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>14299</v>
+        <v>22628</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>22628</v>
+        <v>21771</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>21771</v>
+        <v>17138</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>17138</v>
+        <v>11174</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>11174</v>
+        <v>15973</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>15973</v>
+        <v>9483</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>9483</v>
+        <v>15590</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>15590</v>
+        <v>16494</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>16494</v>
+        <v>15584</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>15584</v>
+        <v>12780</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>12780</v>
+        <v>16905</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>16905</v>
+        <v>10837</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>10837</v>
+        <v>15580</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>15580</v>
+        <v>12056</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>12056</v>
+        <v>16319</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>16319</v>
+        <v>18276</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>18276</v>
+        <v>16589</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>16587</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,98 +3813,98 @@
       <c r="W14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="16" t="s">
-        <v>58</v>
+      <c r="X14" s="16" t="n">
+        <v>90720</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>90720</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>0</v>
+        <v>82800</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>82800</v>
+        <v>120960</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>120960</v>
+        <v>130680</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>130680</v>
+        <v>136080</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>136080</v>
+        <v>91440</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>91440</v>
+        <v>128700</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>128700</v>
+        <v>125640</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>125640</v>
+        <v>109440</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>109440</v>
+        <v>35280</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>35280</v>
+        <v>2160</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>0</v>
+        <v>60120</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>60120</v>
+        <v>43200</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>43200</v>
+        <v>19080</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>19080</v>
+        <v>47160</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>47160</v>
+        <v>66800</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>66800</v>
+        <v>105120</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>105120</v>
+        <v>109980</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>109980</v>
+        <v>108000</v>
       </c>
       <c r="AT14" s="16" t="n">
+        <v>93600</v>
+      </c>
+      <c r="AU14" s="16" t="n">
+        <v>110700</v>
+      </c>
+      <c r="AV14" s="16" t="n">
+        <v>79920</v>
+      </c>
+      <c r="AW14" s="16" t="n">
+        <v>95220</v>
+      </c>
+      <c r="AX14" s="16" t="n">
+        <v>88380</v>
+      </c>
+      <c r="AY14" s="16" t="n">
+        <v>98640</v>
+      </c>
+      <c r="AZ14" s="16" t="n">
+        <v>108180</v>
+      </c>
+      <c r="BA14" s="16" t="n">
         <v>108000</v>
       </c>
-      <c r="AU14" s="16" t="n">
-        <v>93600</v>
-      </c>
-      <c r="AV14" s="16" t="n">
-        <v>110700</v>
-      </c>
-      <c r="AW14" s="16" t="n">
-        <v>79920</v>
-      </c>
-      <c r="AX14" s="16" t="n">
-        <v>95220</v>
-      </c>
-      <c r="AY14" s="16" t="n">
-        <v>88380</v>
-      </c>
-      <c r="AZ14" s="16" t="n">
-        <v>98640</v>
-      </c>
-      <c r="BA14" s="16" t="n">
-        <v>108180</v>
-      </c>
       <c r="BB14" s="16" t="n">
-        <v>115200</v>
+        <v>72720</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,17 +4041,17 @@
       <c r="AT15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV15" s="13" t="n">
-        <v>0</v>
+      <c r="AU15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX15" s="13" t="s">
-        <v>58</v>
+      <c r="AX15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AY15" s="13" t="n">
         <v>0</v>
@@ -4131,98 +4131,98 @@
       <c r="W16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="16" t="s">
-        <v>58</v>
+      <c r="X16" s="16" t="n">
+        <v>38</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AD16" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE16" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="AF16" s="16" t="n">
+        <v>142</v>
+      </c>
+      <c r="AG16" s="16" t="n">
+        <v>141</v>
+      </c>
+      <c r="AH16" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI16" s="16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="AE16" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AF16" s="16" t="n">
-        <v>128</v>
-      </c>
-      <c r="AG16" s="16" t="n">
-        <v>142</v>
-      </c>
-      <c r="AH16" s="16" t="n">
-        <v>141</v>
-      </c>
-      <c r="AI16" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ16" s="16" t="n">
-        <v>90</v>
-      </c>
       <c r="AK16" s="16" t="n">
+        <v>61</v>
+      </c>
+      <c r="AL16" s="16" t="n">
+        <v>106</v>
+      </c>
+      <c r="AM16" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="AL16" s="16" t="n">
-        <v>61</v>
-      </c>
-      <c r="AM16" s="16" t="n">
-        <v>106</v>
-      </c>
       <c r="AN16" s="16" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AO16" s="16" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="AQ16" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AR16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="AV16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="AR16" s="16" t="n">
-        <v>63</v>
-      </c>
-      <c r="AS16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="16" t="n">
-        <v>43</v>
-      </c>
-      <c r="AW16" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AX16" s="16" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AY16" s="16" t="n">
         <v>29</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,11 +4368,11 @@
       <c r="AW17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX17" s="13" t="s">
-        <v>58</v>
+      <c r="AX17" s="13" t="n">
+        <v>213</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="13" t="n">
         <v>0</v>
@@ -4527,20 +4527,20 @@
       <c r="AW18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AX18" s="16" t="s">
-        <v>58</v>
+      <c r="AX18" s="16" t="n">
+        <v>144</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,97 +4607,97 @@
         <v>0</v>
       </c>
       <c r="X19" s="18" t="n">
-        <v>0</v>
+        <v>186441</v>
       </c>
       <c r="Y19" s="18" t="n">
-        <v>186441</v>
+        <v>98377</v>
       </c>
       <c r="Z19" s="18" t="n">
-        <v>98377</v>
+        <v>191691</v>
       </c>
       <c r="AA19" s="18" t="n">
-        <v>191691</v>
+        <v>221259</v>
       </c>
       <c r="AB19" s="18" t="n">
-        <v>221259</v>
+        <v>238856</v>
       </c>
       <c r="AC19" s="18" t="n">
-        <v>238856</v>
+        <v>247905</v>
       </c>
       <c r="AD19" s="18" t="n">
-        <v>247905</v>
+        <v>165572</v>
       </c>
       <c r="AE19" s="18" t="n">
-        <v>165572</v>
+        <v>224437</v>
       </c>
       <c r="AF19" s="18" t="n">
-        <v>224437</v>
+        <v>212780</v>
       </c>
       <c r="AG19" s="18" t="n">
-        <v>212780</v>
+        <v>201248</v>
       </c>
       <c r="AH19" s="18" t="n">
-        <v>201248</v>
+        <v>70016</v>
       </c>
       <c r="AI19" s="18" t="n">
-        <v>70016</v>
+        <v>78312</v>
       </c>
       <c r="AJ19" s="18" t="n">
-        <v>78312</v>
+        <v>64779</v>
       </c>
       <c r="AK19" s="18" t="n">
-        <v>64779</v>
+        <v>97929</v>
       </c>
       <c r="AL19" s="18" t="n">
-        <v>97929</v>
+        <v>160777</v>
       </c>
       <c r="AM19" s="18" t="n">
-        <v>160777</v>
+        <v>144278</v>
       </c>
       <c r="AN19" s="18" t="n">
-        <v>144278</v>
+        <v>83414</v>
       </c>
       <c r="AO19" s="18" t="n">
-        <v>83414</v>
+        <v>121589</v>
       </c>
       <c r="AP19" s="18" t="n">
-        <v>121589</v>
+        <v>118163</v>
       </c>
       <c r="AQ19" s="18" t="n">
-        <v>118163</v>
+        <v>180933</v>
       </c>
       <c r="AR19" s="18" t="n">
-        <v>180933</v>
+        <v>213514</v>
       </c>
       <c r="AS19" s="18" t="n">
-        <v>213514</v>
+        <v>195057</v>
       </c>
       <c r="AT19" s="18" t="n">
-        <v>195057</v>
+        <v>161260</v>
       </c>
       <c r="AU19" s="18" t="n">
-        <v>161260</v>
+        <v>183356</v>
       </c>
       <c r="AV19" s="18" t="n">
-        <v>183356</v>
+        <v>147117</v>
       </c>
       <c r="AW19" s="18" t="n">
-        <v>147117</v>
+        <v>193698</v>
       </c>
       <c r="AX19" s="18" t="n">
-        <v>193698</v>
+        <v>181222</v>
       </c>
       <c r="AY19" s="18" t="n">
-        <v>181222</v>
+        <v>189408</v>
       </c>
       <c r="AZ19" s="18" t="n">
-        <v>189408</v>
+        <v>206332</v>
       </c>
       <c r="BA19" s="18" t="n">
-        <v>206332</v>
+        <v>210776</v>
       </c>
       <c r="BB19" s="18" t="n">
-        <v>222294</v>
+        <v>135884</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4891,11 +4891,11 @@
       <c r="AT21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV21" s="13" t="n">
+      <c r="AU21" s="13" t="n">
         <v>3000</v>
+      </c>
+      <c r="AV21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW21" s="13" t="s">
         <v>58</v>
@@ -5062,11 +5062,11 @@
       <c r="AX22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY22" s="16" t="s">
-        <v>58</v>
+      <c r="AY22" s="16" t="n">
+        <v>191</v>
       </c>
       <c r="AZ22" s="16" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="16" t="n">
         <v>0</v>
@@ -5208,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="AU23" s="18" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AV23" s="18" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="18" t="n">
         <v>0</v>
@@ -5220,10 +5220,10 @@
         <v>0</v>
       </c>
       <c r="AY23" s="18" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="AZ23" s="18" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="18" t="n">
         <v>0</v>
@@ -5352,8 +5352,8 @@
       <c r="W25" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="X25" s="18" t="s">
-        <v>58</v>
+      <c r="X25" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="Y25" s="18" t="n">
         <v>0</v>
@@ -5510,97 +5510,97 @@
         <v>0</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>0</v>
+        <v>186441</v>
       </c>
       <c r="Y26" s="22" t="n">
-        <v>186441</v>
+        <v>98377</v>
       </c>
       <c r="Z26" s="22" t="n">
-        <v>98377</v>
+        <v>191691</v>
       </c>
       <c r="AA26" s="22" t="n">
-        <v>191691</v>
+        <v>221259</v>
       </c>
       <c r="AB26" s="22" t="n">
-        <v>221259</v>
+        <v>238856</v>
       </c>
       <c r="AC26" s="22" t="n">
-        <v>238856</v>
+        <v>247905</v>
       </c>
       <c r="AD26" s="22" t="n">
-        <v>247905</v>
+        <v>165572</v>
       </c>
       <c r="AE26" s="22" t="n">
-        <v>165572</v>
+        <v>224437</v>
       </c>
       <c r="AF26" s="22" t="n">
-        <v>224437</v>
+        <v>212780</v>
       </c>
       <c r="AG26" s="22" t="n">
-        <v>212780</v>
+        <v>201248</v>
       </c>
       <c r="AH26" s="22" t="n">
-        <v>201248</v>
+        <v>70016</v>
       </c>
       <c r="AI26" s="22" t="n">
-        <v>70016</v>
+        <v>78312</v>
       </c>
       <c r="AJ26" s="22" t="n">
-        <v>78312</v>
+        <v>64779</v>
       </c>
       <c r="AK26" s="22" t="n">
-        <v>64779</v>
+        <v>97929</v>
       </c>
       <c r="AL26" s="22" t="n">
-        <v>97929</v>
+        <v>160777</v>
       </c>
       <c r="AM26" s="22" t="n">
-        <v>160777</v>
+        <v>144278</v>
       </c>
       <c r="AN26" s="22" t="n">
-        <v>144278</v>
+        <v>83414</v>
       </c>
       <c r="AO26" s="22" t="n">
-        <v>83414</v>
+        <v>121589</v>
       </c>
       <c r="AP26" s="22" t="n">
-        <v>121589</v>
+        <v>118163</v>
       </c>
       <c r="AQ26" s="22" t="n">
-        <v>118163</v>
+        <v>180933</v>
       </c>
       <c r="AR26" s="22" t="n">
-        <v>180933</v>
+        <v>213514</v>
       </c>
       <c r="AS26" s="22" t="n">
-        <v>213514</v>
+        <v>195057</v>
       </c>
       <c r="AT26" s="22" t="n">
-        <v>195057</v>
+        <v>161260</v>
       </c>
       <c r="AU26" s="22" t="n">
-        <v>161260</v>
+        <v>186356</v>
       </c>
       <c r="AV26" s="22" t="n">
-        <v>186356</v>
+        <v>147117</v>
       </c>
       <c r="AW26" s="22" t="n">
-        <v>147117</v>
+        <v>193698</v>
       </c>
       <c r="AX26" s="22" t="n">
-        <v>193698</v>
+        <v>181222</v>
       </c>
       <c r="AY26" s="22" t="n">
-        <v>181222</v>
+        <v>189599</v>
       </c>
       <c r="AZ26" s="22" t="n">
-        <v>189599</v>
+        <v>206332</v>
       </c>
       <c r="BA26" s="22" t="n">
-        <v>206332</v>
+        <v>210776</v>
       </c>
       <c r="BB26" s="22" t="n">
-        <v>222294</v>
+        <v>135884</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6102,8 +6102,8 @@
       <c r="W33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X33" s="13" t="s">
-        <v>58</v>
+      <c r="X33" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y33" s="13" t="n">
         <v>0</v>
@@ -6123,8 +6123,8 @@
       <c r="AD33" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE33" s="13" t="n">
-        <v>0</v>
+      <c r="AE33" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF33" s="13" t="s">
         <v>58</v>
@@ -6153,8 +6153,8 @@
       <c r="AN33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO33" s="13" t="s">
-        <v>58</v>
+      <c r="AO33" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP33" s="13" t="n">
         <v>0</v>
@@ -6261,98 +6261,98 @@
       <c r="W34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X34" s="16" t="s">
-        <v>58</v>
+      <c r="X34" s="16" t="n">
+        <v>1</v>
       </c>
       <c r="Y34" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="16" t="n">
-        <v>0</v>
+        <v>41860</v>
       </c>
       <c r="AA34" s="16" t="n">
-        <v>41860</v>
+        <v>68940</v>
       </c>
       <c r="AB34" s="16" t="n">
-        <v>68940</v>
+        <v>121564</v>
       </c>
       <c r="AC34" s="16" t="n">
-        <v>121564</v>
+        <v>212900</v>
       </c>
       <c r="AD34" s="16" t="n">
-        <v>212900</v>
+        <v>39940</v>
       </c>
       <c r="AE34" s="16" t="n">
-        <v>39940</v>
+        <v>87740</v>
       </c>
       <c r="AF34" s="16" t="n">
-        <v>87740</v>
+        <v>76961</v>
       </c>
       <c r="AG34" s="16" t="n">
-        <v>76961</v>
+        <v>58666</v>
       </c>
       <c r="AH34" s="16" t="n">
-        <v>58666</v>
+        <v>30520</v>
       </c>
       <c r="AI34" s="16" t="n">
-        <v>30520</v>
+        <v>24060</v>
       </c>
       <c r="AJ34" s="16" t="n">
-        <v>24060</v>
+        <v>16920</v>
       </c>
       <c r="AK34" s="16" t="n">
-        <v>16920</v>
+        <v>135200</v>
       </c>
       <c r="AL34" s="16" t="n">
-        <v>135200</v>
+        <v>56440</v>
       </c>
       <c r="AM34" s="16" t="n">
-        <v>56440</v>
+        <v>77160</v>
       </c>
       <c r="AN34" s="16" t="n">
-        <v>77160</v>
+        <v>18183</v>
       </c>
       <c r="AO34" s="16" t="n">
-        <v>18183</v>
+        <v>148588</v>
       </c>
       <c r="AP34" s="16" t="n">
-        <v>148588</v>
+        <v>29720</v>
       </c>
       <c r="AQ34" s="16" t="n">
-        <v>29720</v>
+        <v>96481</v>
       </c>
       <c r="AR34" s="16" t="n">
-        <v>96481</v>
+        <v>87092</v>
       </c>
       <c r="AS34" s="16" t="n">
-        <v>87092</v>
+        <v>49300</v>
       </c>
       <c r="AT34" s="16" t="n">
-        <v>49300</v>
+        <v>20046</v>
       </c>
       <c r="AU34" s="16" t="n">
-        <v>20046</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="AW34" s="16" t="n">
-        <v>14800</v>
+        <v>5315</v>
       </c>
       <c r="AX34" s="16" t="n">
-        <v>5315</v>
+        <v>177763</v>
       </c>
       <c r="AY34" s="16" t="n">
-        <v>177763</v>
+        <v>15990</v>
       </c>
       <c r="AZ34" s="16" t="n">
-        <v>15990</v>
+        <v>281127</v>
       </c>
       <c r="BA34" s="16" t="n">
-        <v>281127</v>
+        <v>124214</v>
       </c>
       <c r="BB34" s="16" t="n">
-        <v>127254</v>
+        <v>19552</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6420,98 +6420,98 @@
       <c r="W35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X35" s="13" t="s">
-        <v>58</v>
+      <c r="X35" s="13" t="n">
+        <v>12557</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>12557</v>
+        <v>13730</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>13730</v>
+        <v>10372</v>
       </c>
       <c r="AA35" s="13" t="n">
-        <v>10372</v>
+        <v>10427</v>
       </c>
       <c r="AB35" s="13" t="n">
-        <v>10427</v>
+        <v>12537</v>
       </c>
       <c r="AC35" s="13" t="n">
-        <v>12537</v>
+        <v>30323</v>
       </c>
       <c r="AD35" s="13" t="n">
-        <v>30323</v>
+        <v>3263</v>
       </c>
       <c r="AE35" s="13" t="n">
-        <v>3263</v>
+        <v>13004</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>13004</v>
+        <v>12028</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>12028</v>
+        <v>16432</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>16432</v>
+        <v>10966</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>10966</v>
+        <v>19197</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>19197</v>
+        <v>10538</v>
       </c>
       <c r="AK35" s="13" t="n">
-        <v>10538</v>
+        <v>15784</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>15784</v>
+        <v>9869</v>
       </c>
       <c r="AM35" s="13" t="n">
-        <v>9869</v>
+        <v>12861</v>
       </c>
       <c r="AN35" s="13" t="n">
-        <v>12861</v>
+        <v>14648</v>
       </c>
       <c r="AO35" s="13" t="n">
-        <v>14648</v>
+        <v>16438</v>
       </c>
       <c r="AP35" s="13" t="n">
-        <v>16438</v>
+        <v>396</v>
       </c>
       <c r="AQ35" s="13" t="n">
-        <v>396</v>
+        <v>12224</v>
       </c>
       <c r="AR35" s="13" t="n">
-        <v>12224</v>
+        <v>21303</v>
       </c>
       <c r="AS35" s="13" t="n">
-        <v>21303</v>
+        <v>12289</v>
       </c>
       <c r="AT35" s="13" t="n">
-        <v>12289</v>
+        <v>10574</v>
       </c>
       <c r="AU35" s="13" t="n">
-        <v>10574</v>
+        <v>14475</v>
       </c>
       <c r="AV35" s="13" t="n">
-        <v>14475</v>
+        <v>16563</v>
       </c>
       <c r="AW35" s="13" t="n">
-        <v>16563</v>
+        <v>15141</v>
       </c>
       <c r="AX35" s="13" t="n">
-        <v>15141</v>
+        <v>31072</v>
       </c>
       <c r="AY35" s="13" t="n">
-        <v>31072</v>
+        <v>13270</v>
       </c>
       <c r="AZ35" s="13" t="n">
-        <v>13270</v>
+        <v>16659</v>
       </c>
       <c r="BA35" s="13" t="n">
-        <v>16659</v>
+        <v>18722</v>
       </c>
       <c r="BB35" s="13" t="n">
-        <v>18696</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,98 +6579,98 @@
       <c r="W36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X36" s="16" t="s">
-        <v>58</v>
+      <c r="X36" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y36" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z36" s="16" t="n">
-        <v>0</v>
+        <v>41040</v>
       </c>
       <c r="AA36" s="16" t="n">
-        <v>41040</v>
+        <v>87661</v>
       </c>
       <c r="AB36" s="16" t="n">
-        <v>87661</v>
+        <v>117880</v>
       </c>
       <c r="AC36" s="16" t="n">
-        <v>117880</v>
+        <v>230400</v>
       </c>
       <c r="AD36" s="16" t="n">
-        <v>230400</v>
+        <v>38160</v>
       </c>
       <c r="AE36" s="16" t="n">
-        <v>38160</v>
+        <v>152100</v>
       </c>
       <c r="AF36" s="16" t="n">
-        <v>152100</v>
+        <v>59040</v>
       </c>
       <c r="AG36" s="16" t="n">
-        <v>59040</v>
+        <v>26640</v>
       </c>
       <c r="AH36" s="16" t="n">
-        <v>26640</v>
+        <v>27900</v>
       </c>
       <c r="AI36" s="16" t="n">
-        <v>27900</v>
+        <v>27360</v>
       </c>
       <c r="AJ36" s="16" t="n">
-        <v>27360</v>
+        <v>7200</v>
       </c>
       <c r="AK36" s="16" t="n">
-        <v>7200</v>
+        <v>176584</v>
       </c>
       <c r="AL36" s="16" t="n">
-        <v>176584</v>
+        <v>40320</v>
       </c>
       <c r="AM36" s="16" t="n">
         <v>40320</v>
       </c>
       <c r="AN36" s="16" t="n">
-        <v>40320</v>
+        <v>65340</v>
       </c>
       <c r="AO36" s="16" t="n">
-        <v>65340</v>
+        <v>249223</v>
       </c>
       <c r="AP36" s="16" t="n">
-        <v>249223</v>
+        <v>39260</v>
       </c>
       <c r="AQ36" s="16" t="n">
-        <v>39260</v>
+        <v>93918</v>
       </c>
       <c r="AR36" s="16" t="n">
-        <v>93918</v>
+        <v>140270</v>
       </c>
       <c r="AS36" s="16" t="n">
-        <v>140270</v>
+        <v>55680</v>
       </c>
       <c r="AT36" s="16" t="n">
-        <v>55680</v>
+        <v>17100</v>
       </c>
       <c r="AU36" s="16" t="n">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW36" s="16" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AX36" s="16" t="n">
-        <v>50000</v>
+        <v>165397</v>
       </c>
       <c r="AY36" s="16" t="n">
-        <v>165397</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="16" t="n">
-        <v>0</v>
+        <v>460811</v>
       </c>
       <c r="BA36" s="16" t="n">
-        <v>460811</v>
+        <v>171389</v>
       </c>
       <c r="BB36" s="16" t="n">
-        <v>171389</v>
+        <v>38700</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,17 +6807,17 @@
       <c r="AT37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV37" s="13" t="n">
-        <v>0</v>
+      <c r="AU37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX37" s="13" t="s">
-        <v>58</v>
+      <c r="AX37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AY37" s="13" t="n">
         <v>0</v>
@@ -6897,98 +6897,98 @@
       <c r="W38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X38" s="16" t="s">
-        <v>58</v>
+      <c r="X38" s="16" t="n">
+        <v>68</v>
       </c>
       <c r="Y38" s="16" t="n">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="Z38" s="16" t="n">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="AA38" s="16" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AB38" s="16" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC38" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD38" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE38" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF38" s="16" t="n">
         <v>43</v>
       </c>
-      <c r="AC38" s="16" t="n">
-        <v>72</v>
-      </c>
-      <c r="AD38" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE38" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF38" s="16" t="n">
-        <v>29</v>
-      </c>
       <c r="AG38" s="16" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AI38" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ38" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK38" s="16" t="n">
+        <v>62</v>
+      </c>
+      <c r="AL38" s="16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM38" s="16" t="n">
+        <v>49</v>
+      </c>
+      <c r="AN38" s="16" t="n">
+        <v>58</v>
+      </c>
+      <c r="AO38" s="16" t="n">
+        <v>89</v>
+      </c>
+      <c r="AP38" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="16" t="n">
+        <v>66</v>
+      </c>
+      <c r="AR38" s="16" t="n">
+        <v>57</v>
+      </c>
+      <c r="AS38" s="16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT38" s="16" t="n">
+        <v>92</v>
+      </c>
+      <c r="AU38" s="16" t="n">
+        <v>77</v>
+      </c>
+      <c r="AV38" s="16" t="n">
+        <v>74</v>
+      </c>
+      <c r="AW38" s="16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AX38" s="16" t="n">
+        <v>91</v>
+      </c>
+      <c r="AY38" s="16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AZ38" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="AJ38" s="16" t="n">
+      <c r="BA38" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="AK38" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL38" s="16" t="n">
-        <v>62</v>
-      </c>
-      <c r="AM38" s="16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN38" s="16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AO38" s="16" t="n">
-        <v>58</v>
-      </c>
-      <c r="AP38" s="16" t="n">
-        <v>89</v>
-      </c>
-      <c r="AQ38" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="16" t="n">
-        <v>66</v>
-      </c>
-      <c r="AS38" s="16" t="n">
-        <v>57</v>
-      </c>
-      <c r="AT38" s="16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AU38" s="16" t="n">
-        <v>92</v>
-      </c>
-      <c r="AV38" s="16" t="n">
-        <v>77</v>
-      </c>
-      <c r="AW38" s="16" t="n">
-        <v>74</v>
-      </c>
-      <c r="AX38" s="16" t="n">
-        <v>130</v>
-      </c>
-      <c r="AY38" s="16" t="n">
-        <v>91</v>
-      </c>
-      <c r="AZ38" s="16" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA38" s="16" t="n">
-        <v>27</v>
-      </c>
       <c r="BB38" s="16" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7134,8 +7134,8 @@
       <c r="AW39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX39" s="13" t="s">
-        <v>58</v>
+      <c r="AX39" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AY39" s="13" t="n">
         <v>0</v>
@@ -7293,8 +7293,8 @@
       <c r="AW40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AX40" s="16" t="s">
-        <v>58</v>
+      <c r="AX40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AY40" s="16" t="n">
         <v>0</v>
@@ -7373,97 +7373,97 @@
         <v>0</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>0</v>
+        <v>12626</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>12626</v>
+        <v>13836</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>13836</v>
+        <v>93311</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>93311</v>
+        <v>167071</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>167071</v>
+        <v>252053</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>252053</v>
+        <v>473649</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>473649</v>
+        <v>81373</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>81373</v>
+        <v>252873</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>252873</v>
+        <v>148072</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>148072</v>
+        <v>101783</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>101783</v>
+        <v>69413</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>69413</v>
+        <v>70651</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>70651</v>
+        <v>34670</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>34670</v>
+        <v>327630</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>327630</v>
+        <v>106673</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>106673</v>
+        <v>130390</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>130390</v>
+        <v>98229</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>98229</v>
+        <v>414338</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>414338</v>
+        <v>69376</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>69376</v>
+        <v>202689</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>202689</v>
+        <v>248722</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>248722</v>
+        <v>117336</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>117336</v>
+        <v>47812</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>47812</v>
+        <v>14552</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>14552</v>
+        <v>31437</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>31437</v>
+        <v>70586</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>70586</v>
+        <v>374323</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>374323</v>
+        <v>29370</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>29370</v>
+        <v>758624</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>758624</v>
+        <v>314359</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>317373</v>
+        <v>61019</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7657,11 +7657,11 @@
       <c r="AT43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV43" s="13" t="n">
+      <c r="AU43" s="13" t="n">
         <v>2400</v>
+      </c>
+      <c r="AV43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW43" s="13" t="s">
         <v>58</v>
@@ -7828,11 +7828,11 @@
       <c r="AX44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY44" s="16" t="s">
-        <v>58</v>
+      <c r="AY44" s="16" t="n">
+        <v>191</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="16" t="n">
         <v>0</v>
@@ -7974,10 +7974,10 @@
         <v>0</v>
       </c>
       <c r="AU45" s="18" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="AV45" s="18" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="18" t="n">
         <v>0</v>
@@ -7986,10 +7986,10 @@
         <v>0</v>
       </c>
       <c r="AY45" s="18" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="AZ45" s="18" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="18" t="n">
         <v>0</v>
@@ -8118,8 +8118,8 @@
       <c r="W47" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="X47" s="18" t="s">
-        <v>58</v>
+      <c r="X47" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="Y47" s="18" t="n">
         <v>0</v>
@@ -8340,11 +8340,11 @@
       <c r="Y49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z49" s="13" t="s">
-        <v>58</v>
+      <c r="Z49" s="13" t="n">
+        <v>-1</v>
       </c>
       <c r="AA49" s="13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="13" t="n">
         <v>0</v>
@@ -8355,8 +8355,8 @@
       <c r="AD49" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE49" s="13" t="n">
-        <v>0</v>
+      <c r="AE49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF49" s="13" t="s">
         <v>58</v>
@@ -8496,8 +8496,8 @@
       <c r="X50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Y50" s="16" t="s">
-        <v>58</v>
+      <c r="Y50" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z50" s="16" t="n">
         <v>0</v>
@@ -8506,16 +8506,16 @@
         <v>0</v>
       </c>
       <c r="AB50" s="16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC50" s="16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE50" s="16" t="n">
-        <v>0</v>
+      <c r="AE50" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF50" s="16" t="s">
         <v>58</v>
@@ -8655,26 +8655,26 @@
       <c r="X51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="13" t="s">
-        <v>58</v>
+      <c r="Y51" s="13" t="n">
+        <v>-10</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>0</v>
+        <v>-72</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE51" s="13" t="n">
-        <v>0</v>
+      <c r="AE51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF51" s="13" t="s">
         <v>58</v>
@@ -8685,53 +8685,53 @@
       <c r="AH51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI51" s="13" t="s">
-        <v>58</v>
+      <c r="AI51" s="13" t="n">
+        <v>-1</v>
       </c>
       <c r="AJ51" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="AK51" s="13" t="n">
+      <c r="AK51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM51" s="13" t="n">
+        <v>-258</v>
+      </c>
+      <c r="AN51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO51" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="AL51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN51" s="13" t="n">
-        <v>-258</v>
-      </c>
-      <c r="AO51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP51" s="13" t="n">
+      <c r="AP51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR51" s="13" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AS51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT51" s="13" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AU51" s="13" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AV51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW51" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="AQ51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS51" s="13" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AT51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU51" s="13" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AV51" s="13" t="n">
-        <v>-7</v>
-      </c>
-      <c r="AW51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX51" s="13" t="n">
-        <v>-1</v>
+      <c r="AX51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY51" s="13" t="s">
         <v>58</v>
@@ -8814,8 +8814,8 @@
       <c r="X52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="16" t="s">
-        <v>58</v>
+      <c r="Y52" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z52" s="16" t="n">
         <v>0</v>
@@ -8832,8 +8832,8 @@
       <c r="AD52" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE52" s="16" t="n">
-        <v>0</v>
+      <c r="AE52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF52" s="16" t="s">
         <v>58</v>
@@ -8976,11 +8976,11 @@
       <c r="Y53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z53" s="13" t="s">
-        <v>58</v>
+      <c r="Z53" s="13" t="n">
+        <v>-1</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="13" t="n">
         <v>0</v>
@@ -8991,8 +8991,8 @@
       <c r="AD53" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE53" s="13" t="n">
-        <v>0</v>
+      <c r="AE53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF53" s="13" t="s">
         <v>58</v>
@@ -9060,8 +9060,8 @@
       <c r="BA53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB53" s="13" t="s">
-        <v>58</v>
+      <c r="BB53" s="13" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9127,23 +9127,23 @@
       <c r="W54" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X54" s="22" t="s">
-        <v>58</v>
+      <c r="X54" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="Y54" s="22" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="Z54" s="22" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="AA54" s="22" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="22" t="n">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AC54" s="22" t="n">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="22" t="n">
         <v>0</v>
@@ -9161,52 +9161,52 @@
         <v>0</v>
       </c>
       <c r="AI54" s="22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ54" s="22" t="n">
         <v>-1</v>
       </c>
       <c r="AK54" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="22" t="n">
+        <v>-258</v>
+      </c>
+      <c r="AN54" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="22" t="n">
         <v>-1</v>
       </c>
-      <c r="AL54" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN54" s="22" t="n">
-        <v>-258</v>
-      </c>
-      <c r="AO54" s="22" t="n">
-        <v>0</v>
-      </c>
       <c r="AP54" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="22" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AS54" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="22" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AU54" s="22" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AV54" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="22" t="n">
         <v>-1</v>
       </c>
-      <c r="AQ54" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR54" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" s="22" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AT54" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" s="22" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AV54" s="22" t="n">
-        <v>-7</v>
-      </c>
-      <c r="AW54" s="22" t="n">
-        <v>0</v>
-      </c>
       <c r="AX54" s="22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="22" t="n">
         <v>0</v>
@@ -9218,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="BB54" s="22" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9285,97 +9285,97 @@
         <v>0</v>
       </c>
       <c r="X55" s="18" t="n">
-        <v>0</v>
+        <v>12626</v>
       </c>
       <c r="Y55" s="18" t="n">
-        <v>12626</v>
+        <v>13826</v>
       </c>
       <c r="Z55" s="18" t="n">
-        <v>13826</v>
+        <v>93300</v>
       </c>
       <c r="AA55" s="18" t="n">
-        <v>93300</v>
+        <v>167071</v>
       </c>
       <c r="AB55" s="18" t="n">
-        <v>167071</v>
+        <v>251980</v>
       </c>
       <c r="AC55" s="18" t="n">
-        <v>251980</v>
+        <v>473649</v>
       </c>
       <c r="AD55" s="18" t="n">
-        <v>473649</v>
+        <v>81373</v>
       </c>
       <c r="AE55" s="18" t="n">
-        <v>81373</v>
+        <v>252873</v>
       </c>
       <c r="AF55" s="18" t="n">
-        <v>252873</v>
+        <v>148072</v>
       </c>
       <c r="AG55" s="18" t="n">
-        <v>148072</v>
+        <v>101783</v>
       </c>
       <c r="AH55" s="18" t="n">
-        <v>101783</v>
+        <v>69413</v>
       </c>
       <c r="AI55" s="18" t="n">
-        <v>69413</v>
+        <v>70650</v>
       </c>
       <c r="AJ55" s="18" t="n">
-        <v>70650</v>
+        <v>34669</v>
       </c>
       <c r="AK55" s="18" t="n">
-        <v>34669</v>
+        <v>327630</v>
       </c>
       <c r="AL55" s="18" t="n">
-        <v>327630</v>
+        <v>106673</v>
       </c>
       <c r="AM55" s="18" t="n">
-        <v>106673</v>
+        <v>130132</v>
       </c>
       <c r="AN55" s="18" t="n">
-        <v>130132</v>
+        <v>98229</v>
       </c>
       <c r="AO55" s="18" t="n">
-        <v>98229</v>
+        <v>414337</v>
       </c>
       <c r="AP55" s="18" t="n">
-        <v>414337</v>
+        <v>69376</v>
       </c>
       <c r="AQ55" s="18" t="n">
-        <v>69376</v>
+        <v>202689</v>
       </c>
       <c r="AR55" s="18" t="n">
-        <v>202689</v>
+        <v>248714</v>
       </c>
       <c r="AS55" s="18" t="n">
-        <v>248714</v>
+        <v>117336</v>
       </c>
       <c r="AT55" s="18" t="n">
-        <v>117336</v>
+        <v>47800</v>
       </c>
       <c r="AU55" s="18" t="n">
-        <v>47800</v>
+        <v>16945</v>
       </c>
       <c r="AV55" s="18" t="n">
-        <v>16945</v>
+        <v>31437</v>
       </c>
       <c r="AW55" s="18" t="n">
-        <v>31437</v>
+        <v>70585</v>
       </c>
       <c r="AX55" s="18" t="n">
-        <v>70585</v>
+        <v>374323</v>
       </c>
       <c r="AY55" s="18" t="n">
-        <v>374323</v>
+        <v>29561</v>
       </c>
       <c r="AZ55" s="18" t="n">
-        <v>29561</v>
+        <v>758624</v>
       </c>
       <c r="BA55" s="18" t="n">
-        <v>758624</v>
+        <v>314359</v>
       </c>
       <c r="BB55" s="18" t="n">
-        <v>317373</v>
+        <v>61015</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9877,98 +9877,98 @@
       <c r="W62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X62" s="13" t="s">
-        <v>58</v>
+      <c r="X62" s="13" t="n">
+        <v>21064</v>
       </c>
       <c r="Y62" s="13" t="n">
-        <v>21064</v>
+        <v>44239</v>
       </c>
       <c r="Z62" s="13" t="n">
-        <v>44239</v>
+        <v>136461</v>
       </c>
       <c r="AA62" s="13" t="n">
-        <v>136461</v>
+        <v>45394</v>
       </c>
       <c r="AB62" s="13" t="n">
-        <v>45394</v>
+        <v>64471</v>
       </c>
       <c r="AC62" s="13" t="n">
-        <v>64471</v>
+        <v>59456</v>
       </c>
       <c r="AD62" s="13" t="n">
-        <v>59456</v>
+        <v>45548</v>
       </c>
       <c r="AE62" s="13" t="n">
-        <v>45548</v>
+        <v>33395</v>
       </c>
       <c r="AF62" s="13" t="n">
-        <v>33395</v>
+        <v>555372</v>
       </c>
       <c r="AG62" s="13" t="n">
-        <v>555372</v>
+        <v>107399</v>
       </c>
       <c r="AH62" s="13" t="n">
-        <v>107399</v>
+        <v>25731</v>
       </c>
       <c r="AI62" s="13" t="n">
-        <v>25731</v>
+        <v>188473</v>
       </c>
       <c r="AJ62" s="13" t="n">
-        <v>188473</v>
+        <v>8228</v>
       </c>
       <c r="AK62" s="13" t="n">
-        <v>8228</v>
+        <v>183548</v>
       </c>
       <c r="AL62" s="13" t="n">
-        <v>183548</v>
+        <v>86669</v>
       </c>
       <c r="AM62" s="13" t="n">
-        <v>86669</v>
+        <v>57035</v>
       </c>
       <c r="AN62" s="13" t="n">
-        <v>57035</v>
+        <v>209268</v>
       </c>
       <c r="AO62" s="13" t="n">
-        <v>209268</v>
+        <v>54146</v>
       </c>
       <c r="AP62" s="13" t="n">
-        <v>54146</v>
+        <v>18802</v>
       </c>
       <c r="AQ62" s="13" t="n">
-        <v>18802</v>
+        <v>30336</v>
       </c>
       <c r="AR62" s="13" t="n">
-        <v>30336</v>
+        <v>46393</v>
       </c>
       <c r="AS62" s="13" t="n">
-        <v>46393</v>
+        <v>23112</v>
       </c>
       <c r="AT62" s="13" t="n">
-        <v>23112</v>
+        <v>23316</v>
       </c>
       <c r="AU62" s="13" t="n">
-        <v>23316</v>
+        <v>30002</v>
       </c>
       <c r="AV62" s="13" t="n">
-        <v>30002</v>
+        <v>27550</v>
       </c>
       <c r="AW62" s="13" t="n">
-        <v>27550</v>
+        <v>46134</v>
       </c>
       <c r="AX62" s="13" t="n">
-        <v>46134</v>
+        <v>55217</v>
       </c>
       <c r="AY62" s="13" t="n">
-        <v>55217</v>
+        <v>64503</v>
       </c>
       <c r="AZ62" s="13" t="n">
-        <v>64503</v>
+        <v>7004</v>
       </c>
       <c r="BA62" s="13" t="n">
-        <v>7004</v>
+        <v>127146</v>
       </c>
       <c r="BB62" s="13" t="n">
-        <v>127116</v>
+        <v>28985</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10036,98 +10036,98 @@
       <c r="W63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X63" s="16" t="s">
-        <v>58</v>
+      <c r="X63" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="Y63" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="16" t="n">
-        <v>0</v>
+        <v>315287</v>
       </c>
       <c r="AA63" s="16" t="n">
-        <v>315287</v>
+        <v>565369</v>
       </c>
       <c r="AB63" s="16" t="n">
-        <v>565369</v>
+        <v>1154082</v>
       </c>
       <c r="AC63" s="16" t="n">
-        <v>1154082</v>
+        <v>1929855</v>
       </c>
       <c r="AD63" s="16" t="n">
-        <v>1929855</v>
+        <v>359198</v>
       </c>
       <c r="AE63" s="16" t="n">
-        <v>359198</v>
+        <v>939323</v>
       </c>
       <c r="AF63" s="16" t="n">
-        <v>939323</v>
+        <v>796612</v>
       </c>
       <c r="AG63" s="16" t="n">
-        <v>796612</v>
+        <v>598485</v>
       </c>
       <c r="AH63" s="16" t="n">
-        <v>598485</v>
+        <v>325004</v>
       </c>
       <c r="AI63" s="16" t="n">
-        <v>325004</v>
+        <v>248643</v>
       </c>
       <c r="AJ63" s="16" t="n">
-        <v>248643</v>
+        <v>184980</v>
       </c>
       <c r="AK63" s="16" t="n">
-        <v>184980</v>
+        <v>1288847</v>
       </c>
       <c r="AL63" s="16" t="n">
-        <v>1288847</v>
+        <v>613896</v>
       </c>
       <c r="AM63" s="16" t="n">
-        <v>613896</v>
+        <v>822976</v>
       </c>
       <c r="AN63" s="16" t="n">
-        <v>822976</v>
+        <v>224478</v>
       </c>
       <c r="AO63" s="16" t="n">
-        <v>224478</v>
+        <v>1707195</v>
       </c>
       <c r="AP63" s="16" t="n">
-        <v>1707195</v>
+        <v>429525</v>
       </c>
       <c r="AQ63" s="16" t="n">
-        <v>429525</v>
+        <v>1196530</v>
       </c>
       <c r="AR63" s="16" t="n">
-        <v>1196530</v>
+        <v>1167229</v>
       </c>
       <c r="AS63" s="16" t="n">
-        <v>1167229</v>
+        <v>704836</v>
       </c>
       <c r="AT63" s="16" t="n">
-        <v>704836</v>
+        <v>294290</v>
       </c>
       <c r="AU63" s="16" t="n">
-        <v>294290</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="16" t="n">
-        <v>0</v>
+        <v>220719</v>
       </c>
       <c r="AW63" s="16" t="n">
-        <v>220719</v>
+        <v>75963</v>
       </c>
       <c r="AX63" s="16" t="n">
-        <v>75963</v>
+        <v>2197652</v>
       </c>
       <c r="AY63" s="16" t="n">
-        <v>2197652</v>
+        <v>213554</v>
       </c>
       <c r="AZ63" s="16" t="n">
-        <v>213554</v>
+        <v>4264236</v>
       </c>
       <c r="BA63" s="16" t="n">
-        <v>4264236</v>
+        <v>2232120</v>
       </c>
       <c r="BB63" s="16" t="n">
-        <v>2197150</v>
+        <v>314407</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10195,98 +10195,98 @@
       <c r="W64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X64" s="13" t="s">
-        <v>58</v>
+      <c r="X64" s="13" t="n">
+        <v>404099</v>
       </c>
       <c r="Y64" s="13" t="n">
-        <v>404099</v>
+        <v>495649</v>
       </c>
       <c r="Z64" s="13" t="n">
-        <v>495649</v>
+        <v>406948</v>
       </c>
       <c r="AA64" s="13" t="n">
-        <v>406948</v>
+        <v>425872</v>
       </c>
       <c r="AB64" s="13" t="n">
-        <v>425872</v>
+        <v>511284</v>
       </c>
       <c r="AC64" s="13" t="n">
-        <v>511284</v>
+        <v>1092741</v>
       </c>
       <c r="AD64" s="13" t="n">
-        <v>1092741</v>
+        <v>99941</v>
       </c>
       <c r="AE64" s="13" t="n">
-        <v>99941</v>
+        <v>525307</v>
       </c>
       <c r="AF64" s="13" t="n">
-        <v>525307</v>
+        <v>546548</v>
       </c>
       <c r="AG64" s="13" t="n">
-        <v>546548</v>
+        <v>583610</v>
       </c>
       <c r="AH64" s="13" t="n">
-        <v>583610</v>
+        <v>495296</v>
       </c>
       <c r="AI64" s="13" t="n">
-        <v>495296</v>
+        <v>880314</v>
       </c>
       <c r="AJ64" s="13" t="n">
-        <v>880314</v>
+        <v>380334</v>
       </c>
       <c r="AK64" s="13" t="n">
-        <v>380334</v>
+        <v>591699</v>
       </c>
       <c r="AL64" s="13" t="n">
-        <v>591699</v>
+        <v>424291</v>
       </c>
       <c r="AM64" s="13" t="n">
-        <v>424291</v>
+        <v>606757</v>
       </c>
       <c r="AN64" s="13" t="n">
-        <v>606757</v>
+        <v>678753</v>
       </c>
       <c r="AO64" s="13" t="n">
-        <v>678753</v>
+        <v>849264</v>
       </c>
       <c r="AP64" s="13" t="n">
-        <v>849264</v>
+        <v>21683</v>
       </c>
       <c r="AQ64" s="13" t="n">
-        <v>21683</v>
+        <v>694320</v>
       </c>
       <c r="AR64" s="13" t="n">
-        <v>694320</v>
+        <v>1274597</v>
       </c>
       <c r="AS64" s="13" t="n">
-        <v>1274597</v>
+        <v>733479</v>
       </c>
       <c r="AT64" s="13" t="n">
-        <v>733479</v>
+        <v>591454</v>
       </c>
       <c r="AU64" s="13" t="n">
-        <v>591454</v>
+        <v>1009397</v>
       </c>
       <c r="AV64" s="13" t="n">
-        <v>1009397</v>
+        <v>780408</v>
       </c>
       <c r="AW64" s="13" t="n">
-        <v>780408</v>
+        <v>865742</v>
       </c>
       <c r="AX64" s="13" t="n">
-        <v>865742</v>
+        <v>1619975</v>
       </c>
       <c r="AY64" s="13" t="n">
-        <v>1619975</v>
+        <v>933174</v>
       </c>
       <c r="AZ64" s="13" t="n">
-        <v>933174</v>
+        <v>945978</v>
       </c>
       <c r="BA64" s="13" t="n">
-        <v>945978</v>
+        <v>1751418</v>
       </c>
       <c r="BB64" s="13" t="n">
-        <v>1769708</v>
+        <v>276089</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10354,98 +10354,98 @@
       <c r="W65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X65" s="16" t="s">
-        <v>58</v>
+      <c r="X65" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y65" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z65" s="16" t="n">
-        <v>0</v>
+        <v>30626</v>
       </c>
       <c r="AA65" s="16" t="n">
-        <v>30626</v>
+        <v>71002</v>
       </c>
       <c r="AB65" s="16" t="n">
-        <v>71002</v>
+        <v>109521</v>
       </c>
       <c r="AC65" s="16" t="n">
-        <v>109521</v>
+        <v>213248</v>
       </c>
       <c r="AD65" s="16" t="n">
-        <v>213248</v>
+        <v>39369</v>
       </c>
       <c r="AE65" s="16" t="n">
-        <v>39369</v>
+        <v>155903</v>
       </c>
       <c r="AF65" s="16" t="n">
-        <v>155903</v>
+        <v>60478</v>
       </c>
       <c r="AG65" s="16" t="n">
-        <v>60478</v>
+        <v>27514</v>
       </c>
       <c r="AH65" s="16" t="n">
-        <v>27514</v>
+        <v>28783</v>
       </c>
       <c r="AI65" s="16" t="n">
-        <v>28783</v>
+        <v>28074</v>
       </c>
       <c r="AJ65" s="16" t="n">
-        <v>28074</v>
+        <v>7466</v>
       </c>
       <c r="AK65" s="16" t="n">
-        <v>7466</v>
+        <v>179864</v>
       </c>
       <c r="AL65" s="16" t="n">
-        <v>179864</v>
+        <v>42879</v>
       </c>
       <c r="AM65" s="16" t="n">
-        <v>42879</v>
+        <v>45240</v>
       </c>
       <c r="AN65" s="16" t="n">
-        <v>45240</v>
+        <v>76463</v>
       </c>
       <c r="AO65" s="16" t="n">
-        <v>76463</v>
+        <v>283151</v>
       </c>
       <c r="AP65" s="16" t="n">
-        <v>283151</v>
+        <v>57327</v>
       </c>
       <c r="AQ65" s="16" t="n">
-        <v>57327</v>
+        <v>117396</v>
       </c>
       <c r="AR65" s="16" t="n">
-        <v>117396</v>
+        <v>194746</v>
       </c>
       <c r="AS65" s="16" t="n">
-        <v>194746</v>
+        <v>77291</v>
       </c>
       <c r="AT65" s="16" t="n">
-        <v>77291</v>
+        <v>22499</v>
       </c>
       <c r="AU65" s="16" t="n">
-        <v>22499</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW65" s="16" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="AX65" s="16" t="n">
-        <v>70000</v>
+        <v>216624</v>
       </c>
       <c r="AY65" s="16" t="n">
-        <v>216624</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="16" t="n">
-        <v>0</v>
+        <v>662717</v>
       </c>
       <c r="BA65" s="16" t="n">
-        <v>662717</v>
+        <v>288596</v>
       </c>
       <c r="BB65" s="16" t="n">
-        <v>283279</v>
+        <v>69286</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10582,17 +10582,17 @@
       <c r="AT66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV66" s="13" t="n">
+      <c r="AU66" s="13" t="n">
         <v>227700</v>
       </c>
+      <c r="AV66" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AW66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX66" s="13" t="s">
-        <v>58</v>
+      <c r="AX66" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AY66" s="13" t="n">
         <v>0</v>
@@ -10672,98 +10672,98 @@
       <c r="W67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X67" s="16" t="s">
-        <v>58</v>
+      <c r="X67" s="16" t="n">
+        <v>5686</v>
       </c>
       <c r="Y67" s="16" t="n">
-        <v>5686</v>
+        <v>10657</v>
       </c>
       <c r="Z67" s="16" t="n">
-        <v>10657</v>
+        <v>3960</v>
       </c>
       <c r="AA67" s="16" t="n">
-        <v>3960</v>
+        <v>3782</v>
       </c>
       <c r="AB67" s="16" t="n">
-        <v>3782</v>
+        <v>6554</v>
       </c>
       <c r="AC67" s="16" t="n">
-        <v>6554</v>
+        <v>2480</v>
       </c>
       <c r="AD67" s="16" t="n">
-        <v>2480</v>
+        <v>1220</v>
       </c>
       <c r="AE67" s="16" t="n">
-        <v>1220</v>
+        <v>3122</v>
       </c>
       <c r="AF67" s="16" t="n">
-        <v>3122</v>
+        <v>4942</v>
       </c>
       <c r="AG67" s="16" t="n">
-        <v>4942</v>
+        <v>5274</v>
       </c>
       <c r="AH67" s="16" t="n">
-        <v>5274</v>
+        <v>3009</v>
       </c>
       <c r="AI67" s="16" t="n">
-        <v>3009</v>
+        <v>4495</v>
       </c>
       <c r="AJ67" s="16" t="n">
-        <v>4495</v>
+        <v>2135</v>
       </c>
       <c r="AK67" s="16" t="n">
-        <v>2135</v>
+        <v>8091</v>
       </c>
       <c r="AL67" s="16" t="n">
-        <v>8091</v>
+        <v>5442</v>
       </c>
       <c r="AM67" s="16" t="n">
-        <v>5442</v>
+        <v>5891</v>
       </c>
       <c r="AN67" s="16" t="n">
-        <v>5891</v>
+        <v>6355</v>
       </c>
       <c r="AO67" s="16" t="n">
-        <v>6355</v>
+        <v>9655</v>
       </c>
       <c r="AP67" s="16" t="n">
-        <v>9655</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="16" t="n">
-        <v>0</v>
+        <v>9912</v>
       </c>
       <c r="AR67" s="16" t="n">
-        <v>9912</v>
+        <v>8239</v>
       </c>
       <c r="AS67" s="16" t="n">
-        <v>8239</v>
+        <v>10905</v>
       </c>
       <c r="AT67" s="16" t="n">
-        <v>10905</v>
+        <v>14611</v>
       </c>
       <c r="AU67" s="16" t="n">
-        <v>14611</v>
+        <v>10854</v>
       </c>
       <c r="AV67" s="16" t="n">
-        <v>10854</v>
+        <v>10636</v>
       </c>
       <c r="AW67" s="16" t="n">
-        <v>10636</v>
+        <v>17059</v>
       </c>
       <c r="AX67" s="16" t="n">
-        <v>17059</v>
+        <v>12869</v>
       </c>
       <c r="AY67" s="16" t="n">
-        <v>12869</v>
+        <v>16738</v>
       </c>
       <c r="AZ67" s="16" t="n">
-        <v>16738</v>
+        <v>4787</v>
       </c>
       <c r="BA67" s="16" t="n">
-        <v>4787</v>
+        <v>12174</v>
       </c>
       <c r="BB67" s="16" t="n">
-        <v>12174</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10909,8 +10909,8 @@
       <c r="AW68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX68" s="13" t="s">
-        <v>58</v>
+      <c r="AX68" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AY68" s="13" t="n">
         <v>0</v>
@@ -11068,8 +11068,8 @@
       <c r="AW69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AX69" s="16" t="s">
-        <v>58</v>
+      <c r="AX69" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AY69" s="16" t="n">
         <v>0</v>
@@ -11148,97 +11148,97 @@
         <v>0</v>
       </c>
       <c r="X70" s="18" t="n">
-        <v>0</v>
+        <v>430855</v>
       </c>
       <c r="Y70" s="18" t="n">
-        <v>430855</v>
+        <v>550545</v>
       </c>
       <c r="Z70" s="18" t="n">
-        <v>550545</v>
+        <v>893282</v>
       </c>
       <c r="AA70" s="18" t="n">
-        <v>893282</v>
+        <v>1111419</v>
       </c>
       <c r="AB70" s="18" t="n">
-        <v>1111419</v>
+        <v>1845912</v>
       </c>
       <c r="AC70" s="18" t="n">
-        <v>1845912</v>
+        <v>3297780</v>
       </c>
       <c r="AD70" s="18" t="n">
-        <v>3297780</v>
+        <v>545276</v>
       </c>
       <c r="AE70" s="18" t="n">
-        <v>545276</v>
+        <v>1657050</v>
       </c>
       <c r="AF70" s="18" t="n">
-        <v>1657050</v>
+        <v>1963952</v>
       </c>
       <c r="AG70" s="18" t="n">
-        <v>1963952</v>
+        <v>1322282</v>
       </c>
       <c r="AH70" s="18" t="n">
-        <v>1322282</v>
+        <v>877823</v>
       </c>
       <c r="AI70" s="18" t="n">
-        <v>877823</v>
+        <v>1349999</v>
       </c>
       <c r="AJ70" s="18" t="n">
-        <v>1349999</v>
+        <v>583143</v>
       </c>
       <c r="AK70" s="18" t="n">
-        <v>583143</v>
+        <v>2252049</v>
       </c>
       <c r="AL70" s="18" t="n">
-        <v>2252049</v>
+        <v>1173177</v>
       </c>
       <c r="AM70" s="18" t="n">
-        <v>1173177</v>
+        <v>1537899</v>
       </c>
       <c r="AN70" s="18" t="n">
-        <v>1537899</v>
+        <v>1195317</v>
       </c>
       <c r="AO70" s="18" t="n">
-        <v>1195317</v>
+        <v>2903411</v>
       </c>
       <c r="AP70" s="18" t="n">
-        <v>2903411</v>
+        <v>527337</v>
       </c>
       <c r="AQ70" s="18" t="n">
-        <v>527337</v>
+        <v>2048494</v>
       </c>
       <c r="AR70" s="18" t="n">
-        <v>2048494</v>
+        <v>2691204</v>
       </c>
       <c r="AS70" s="18" t="n">
-        <v>2691204</v>
+        <v>1549623</v>
       </c>
       <c r="AT70" s="18" t="n">
-        <v>1549623</v>
+        <v>946170</v>
       </c>
       <c r="AU70" s="18" t="n">
-        <v>946170</v>
+        <v>1277953</v>
       </c>
       <c r="AV70" s="18" t="n">
-        <v>1277953</v>
+        <v>1039313</v>
       </c>
       <c r="AW70" s="18" t="n">
-        <v>1039313</v>
+        <v>1074898</v>
       </c>
       <c r="AX70" s="18" t="n">
-        <v>1074898</v>
+        <v>4102337</v>
       </c>
       <c r="AY70" s="18" t="n">
-        <v>4102337</v>
+        <v>1227969</v>
       </c>
       <c r="AZ70" s="18" t="n">
-        <v>1227969</v>
+        <v>5884722</v>
       </c>
       <c r="BA70" s="18" t="n">
-        <v>5884722</v>
+        <v>4411454</v>
       </c>
       <c r="BB70" s="18" t="n">
-        <v>4389427</v>
+        <v>691883</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11432,11 +11432,11 @@
       <c r="AT72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV72" s="13" t="n">
+      <c r="AU72" s="13" t="n">
         <v>29297</v>
+      </c>
+      <c r="AV72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW72" s="13" t="s">
         <v>58</v>
@@ -11603,11 +11603,11 @@
       <c r="AX73" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY73" s="16" t="s">
-        <v>58</v>
+      <c r="AY73" s="16" t="n">
+        <v>14479</v>
       </c>
       <c r="AZ73" s="16" t="n">
-        <v>14479</v>
+        <v>0</v>
       </c>
       <c r="BA73" s="16" t="n">
         <v>0</v>
@@ -11749,10 +11749,10 @@
         <v>0</v>
       </c>
       <c r="AU74" s="18" t="n">
-        <v>0</v>
+        <v>29297</v>
       </c>
       <c r="AV74" s="18" t="n">
-        <v>29297</v>
+        <v>0</v>
       </c>
       <c r="AW74" s="18" t="n">
         <v>0</v>
@@ -11761,10 +11761,10 @@
         <v>0</v>
       </c>
       <c r="AY74" s="18" t="n">
-        <v>0</v>
+        <v>14479</v>
       </c>
       <c r="AZ74" s="18" t="n">
-        <v>14479</v>
+        <v>0</v>
       </c>
       <c r="BA74" s="18" t="n">
         <v>0</v>
@@ -11895,8 +11895,8 @@
       <c r="W76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="X76" s="18" t="s">
-        <v>58</v>
+      <c r="X76" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="Y76" s="23" t="n">
         <v>0</v>
@@ -12117,11 +12117,11 @@
       <c r="Y78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z78" s="13" t="s">
-        <v>58</v>
+      <c r="Z78" s="13" t="n">
+        <v>-1</v>
       </c>
       <c r="AA78" s="13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB78" s="13" t="n">
         <v>0</v>
@@ -12130,10 +12130,10 @@
         <v>0</v>
       </c>
       <c r="AD78" s="13" t="n">
-        <v>0</v>
+        <v>-2559</v>
       </c>
       <c r="AE78" s="13" t="n">
-        <v>-2559</v>
+        <v>0</v>
       </c>
       <c r="AF78" s="13" t="n">
         <v>0</v>
@@ -12142,19 +12142,19 @@
         <v>0</v>
       </c>
       <c r="AH78" s="13" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AI78" s="13" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AJ78" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL78" s="13" t="s">
-        <v>58</v>
+      <c r="AL78" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AM78" s="13" t="n">
         <v>0</v>
@@ -12178,13 +12178,13 @@
         <v>0</v>
       </c>
       <c r="AT78" s="13" t="n">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="AU78" s="13" t="n">
-        <v>-69</v>
-      </c>
-      <c r="AV78" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AV78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW78" s="13" t="s">
         <v>58</v>
@@ -12273,8 +12273,8 @@
       <c r="X79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="16" t="s">
-        <v>58</v>
+      <c r="Y79" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z79" s="16" t="n">
         <v>0</v>
@@ -12283,10 +12283,10 @@
         <v>0</v>
       </c>
       <c r="AB79" s="16" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AC79" s="16" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AD79" s="16" t="n">
         <v>0</v>
@@ -12306,8 +12306,8 @@
       <c r="AI79" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ79" s="16" t="n">
-        <v>0</v>
+      <c r="AJ79" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK79" s="16" t="s">
         <v>58</v>
@@ -12318,8 +12318,8 @@
       <c r="AM79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN79" s="16" t="s">
-        <v>58</v>
+      <c r="AN79" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO79" s="16" t="n">
         <v>0</v>
@@ -12342,8 +12342,8 @@
       <c r="AU79" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AV79" s="16" t="n">
-        <v>0</v>
+      <c r="AV79" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AW79" s="16" t="s">
         <v>58</v>
@@ -12432,20 +12432,20 @@
       <c r="X80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="13" t="s">
-        <v>58</v>
+      <c r="Y80" s="13" t="n">
+        <v>-670</v>
       </c>
       <c r="Z80" s="13" t="n">
-        <v>-670</v>
+        <v>-583</v>
       </c>
       <c r="AA80" s="13" t="n">
-        <v>-583</v>
+        <v>0</v>
       </c>
       <c r="AB80" s="13" t="n">
-        <v>0</v>
+        <v>-1830</v>
       </c>
       <c r="AC80" s="13" t="n">
-        <v>-1830</v>
+        <v>0</v>
       </c>
       <c r="AD80" s="13" t="n">
         <v>0</v>
@@ -12463,52 +12463,52 @@
         <v>0</v>
       </c>
       <c r="AI80" s="13" t="n">
-        <v>0</v>
+        <v>-1353</v>
       </c>
       <c r="AJ80" s="13" t="n">
-        <v>-1353</v>
+        <v>-346</v>
       </c>
       <c r="AK80" s="13" t="n">
-        <v>-346</v>
+        <v>0</v>
       </c>
       <c r="AL80" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AM80" s="13" t="n">
-        <v>0</v>
+        <v>-7363</v>
       </c>
       <c r="AN80" s="13" t="n">
-        <v>-7363</v>
+        <v>0</v>
       </c>
       <c r="AO80" s="13" t="n">
-        <v>0</v>
+        <v>-207</v>
       </c>
       <c r="AP80" s="13" t="n">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="AQ80" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AR80" s="13" t="n">
-        <v>0</v>
+        <v>-732</v>
       </c>
       <c r="AS80" s="13" t="n">
-        <v>-732</v>
+        <v>0</v>
       </c>
       <c r="AT80" s="13" t="n">
-        <v>0</v>
+        <v>-171</v>
       </c>
       <c r="AU80" s="13" t="n">
-        <v>-171</v>
+        <v>-798</v>
       </c>
       <c r="AV80" s="13" t="n">
-        <v>-798</v>
+        <v>0</v>
       </c>
       <c r="AW80" s="13" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AX80" s="13" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AY80" s="13" t="n">
         <v>0</v>
@@ -12591,8 +12591,8 @@
       <c r="X81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="16" t="s">
-        <v>58</v>
+      <c r="Y81" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z81" s="16" t="n">
         <v>0</v>
@@ -12624,8 +12624,8 @@
       <c r="AI81" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ81" s="16" t="n">
-        <v>0</v>
+      <c r="AJ81" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK81" s="16" t="s">
         <v>58</v>
@@ -12753,11 +12753,11 @@
       <c r="Y82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z82" s="13" t="s">
-        <v>58</v>
+      <c r="Z82" s="13" t="n">
+        <v>-123</v>
       </c>
       <c r="AA82" s="13" t="n">
-        <v>-123</v>
+        <v>0</v>
       </c>
       <c r="AB82" s="13" t="n">
         <v>0</v>
@@ -12786,11 +12786,11 @@
       <c r="AJ82" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK82" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL82" s="13" t="s">
-        <v>58</v>
+      <c r="AK82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL82" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AM82" s="13" t="n">
         <v>0</v>
@@ -12819,8 +12819,8 @@
       <c r="AU82" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AV82" s="13" t="n">
-        <v>0</v>
+      <c r="AV82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW82" s="13" t="s">
         <v>58</v>
@@ -12837,8 +12837,8 @@
       <c r="BA82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB82" s="13" t="s">
-        <v>58</v>
+      <c r="BB82" s="13" t="n">
+        <v>-1635</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12906,29 +12906,29 @@
       <c r="W83" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X83" s="22" t="s">
-        <v>58</v>
+      <c r="X83" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="Y83" s="24" t="n">
-        <v>0</v>
+        <v>-670</v>
       </c>
       <c r="Z83" s="24" t="n">
-        <v>-670</v>
+        <v>-707</v>
       </c>
       <c r="AA83" s="24" t="n">
-        <v>-707</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="24" t="n">
-        <v>0</v>
+        <v>-1839</v>
       </c>
       <c r="AC83" s="24" t="n">
-        <v>-1839</v>
+        <v>0</v>
       </c>
       <c r="AD83" s="24" t="n">
-        <v>0</v>
+        <v>-2559</v>
       </c>
       <c r="AE83" s="24" t="n">
-        <v>-2559</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="24" t="n">
         <v>0</v>
@@ -12937,55 +12937,55 @@
         <v>0</v>
       </c>
       <c r="AH83" s="24" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AI83" s="24" t="n">
-        <v>-23</v>
+        <v>-1353</v>
       </c>
       <c r="AJ83" s="24" t="n">
-        <v>-1353</v>
+        <v>-346</v>
       </c>
       <c r="AK83" s="24" t="n">
-        <v>-346</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AM83" s="24" t="n">
-        <v>0</v>
+        <v>-7363</v>
       </c>
       <c r="AN83" s="24" t="n">
-        <v>-7363</v>
+        <v>0</v>
       </c>
       <c r="AO83" s="24" t="n">
-        <v>0</v>
+        <v>-207</v>
       </c>
       <c r="AP83" s="24" t="n">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="AQ83" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AR83" s="24" t="n">
-        <v>0</v>
+        <v>-732</v>
       </c>
       <c r="AS83" s="24" t="n">
-        <v>-732</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="24" t="n">
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="AU83" s="24" t="n">
-        <v>-240</v>
+        <v>-798</v>
       </c>
       <c r="AV83" s="24" t="n">
-        <v>-798</v>
+        <v>0</v>
       </c>
       <c r="AW83" s="24" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AX83" s="24" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AY83" s="24" t="n">
         <v>0</v>
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="BB83" s="24" t="n">
-        <v>0</v>
+        <v>-1635</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13122,8 +13122,8 @@
       <c r="W85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X85" s="13" t="s">
-        <v>58</v>
+      <c r="X85" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y85" s="13" t="n">
         <v>0</v>
@@ -13280,97 +13280,97 @@
         <v>0</v>
       </c>
       <c r="X86" s="24" t="n">
-        <v>0</v>
+        <v>430855</v>
       </c>
       <c r="Y86" s="24" t="n">
-        <v>430855</v>
+        <v>549875</v>
       </c>
       <c r="Z86" s="24" t="n">
-        <v>549875</v>
+        <v>892575</v>
       </c>
       <c r="AA86" s="24" t="n">
-        <v>892575</v>
+        <v>1111419</v>
       </c>
       <c r="AB86" s="24" t="n">
-        <v>1111419</v>
+        <v>1844073</v>
       </c>
       <c r="AC86" s="24" t="n">
-        <v>1844073</v>
+        <v>3297780</v>
       </c>
       <c r="AD86" s="24" t="n">
-        <v>3297780</v>
+        <v>542717</v>
       </c>
       <c r="AE86" s="24" t="n">
-        <v>542717</v>
+        <v>1657050</v>
       </c>
       <c r="AF86" s="24" t="n">
-        <v>1657050</v>
+        <v>1963952</v>
       </c>
       <c r="AG86" s="24" t="n">
-        <v>1963952</v>
+        <v>1322282</v>
       </c>
       <c r="AH86" s="24" t="n">
-        <v>1322282</v>
+        <v>877800</v>
       </c>
       <c r="AI86" s="24" t="n">
-        <v>877800</v>
+        <v>1348646</v>
       </c>
       <c r="AJ86" s="24" t="n">
-        <v>1348646</v>
+        <v>582797</v>
       </c>
       <c r="AK86" s="24" t="n">
-        <v>582797</v>
+        <v>2252049</v>
       </c>
       <c r="AL86" s="24" t="n">
-        <v>2252049</v>
+        <v>1173177</v>
       </c>
       <c r="AM86" s="24" t="n">
-        <v>1173177</v>
+        <v>1530536</v>
       </c>
       <c r="AN86" s="24" t="n">
-        <v>1530536</v>
+        <v>1195317</v>
       </c>
       <c r="AO86" s="24" t="n">
-        <v>1195317</v>
+        <v>2903204</v>
       </c>
       <c r="AP86" s="24" t="n">
-        <v>2903204</v>
+        <v>527337</v>
       </c>
       <c r="AQ86" s="24" t="n">
-        <v>527337</v>
+        <v>2048494</v>
       </c>
       <c r="AR86" s="24" t="n">
-        <v>2048494</v>
+        <v>2690472</v>
       </c>
       <c r="AS86" s="24" t="n">
-        <v>2690472</v>
+        <v>1549623</v>
       </c>
       <c r="AT86" s="24" t="n">
-        <v>1549623</v>
+        <v>945930</v>
       </c>
       <c r="AU86" s="24" t="n">
-        <v>945930</v>
+        <v>1306452</v>
       </c>
       <c r="AV86" s="24" t="n">
-        <v>1306452</v>
+        <v>1039313</v>
       </c>
       <c r="AW86" s="24" t="n">
-        <v>1039313</v>
+        <v>1074798</v>
       </c>
       <c r="AX86" s="24" t="n">
-        <v>1074798</v>
+        <v>4102337</v>
       </c>
       <c r="AY86" s="24" t="n">
-        <v>4102337</v>
+        <v>1242448</v>
       </c>
       <c r="AZ86" s="24" t="n">
-        <v>1242448</v>
+        <v>5884722</v>
       </c>
       <c r="BA86" s="24" t="n">
-        <v>5884722</v>
+        <v>4411454</v>
       </c>
       <c r="BB86" s="24" t="n">
-        <v>4389427</v>
+        <v>690248</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13872,98 +13872,98 @@
       <c r="W93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y93" s="13" t="n">
+      <c r="X93" s="13" t="n">
         <v>6000000</v>
       </c>
-      <c r="Z93" s="13" t="s">
-        <v>58</v>
+      <c r="Y93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z93" s="13" t="n">
+        <v>7531940</v>
       </c>
       <c r="AA93" s="13" t="n">
-        <v>7531940</v>
+        <v>8200885</v>
       </c>
       <c r="AB93" s="13" t="n">
-        <v>8200885</v>
+        <v>9493617</v>
       </c>
       <c r="AC93" s="13" t="n">
-        <v>9493617</v>
+        <v>9064608</v>
       </c>
       <c r="AD93" s="13" t="n">
-        <v>9064608</v>
+        <v>8993440</v>
       </c>
       <c r="AE93" s="13" t="n">
-        <v>8993440</v>
+        <v>10705756</v>
       </c>
       <c r="AF93" s="13" t="n">
-        <v>10705756</v>
+        <v>10350853</v>
       </c>
       <c r="AG93" s="13" t="n">
-        <v>10350853</v>
+        <v>10201565</v>
       </c>
       <c r="AH93" s="13" t="n">
-        <v>10201565</v>
+        <v>10648886</v>
       </c>
       <c r="AI93" s="13" t="n">
-        <v>10648886</v>
+        <v>10334289</v>
       </c>
       <c r="AJ93" s="13" t="n">
-        <v>10334289</v>
+        <v>10932624</v>
       </c>
       <c r="AK93" s="13" t="n">
-        <v>10932624</v>
+        <v>9532892</v>
       </c>
       <c r="AL93" s="13" t="n">
-        <v>9532892</v>
+        <v>10876967</v>
       </c>
       <c r="AM93" s="13" t="n">
-        <v>10876967</v>
+        <v>10665837</v>
       </c>
       <c r="AN93" s="13" t="n">
-        <v>10665837</v>
+        <v>12345488</v>
       </c>
       <c r="AO93" s="13" t="n">
-        <v>12345488</v>
+        <v>11489454</v>
       </c>
       <c r="AP93" s="13" t="n">
-        <v>11489454</v>
+        <v>14452389</v>
       </c>
       <c r="AQ93" s="13" t="n">
-        <v>14452389</v>
+        <v>12401716</v>
       </c>
       <c r="AR93" s="13" t="n">
-        <v>12401716</v>
+        <v>13402253</v>
       </c>
       <c r="AS93" s="13" t="n">
-        <v>13402253</v>
+        <v>14296876</v>
       </c>
       <c r="AT93" s="13" t="n">
-        <v>14296876</v>
-      </c>
-      <c r="AU93" s="13" t="n">
         <v>14680734</v>
       </c>
-      <c r="AV93" s="13" t="s">
-        <v>58</v>
+      <c r="AU93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV93" s="13" t="n">
+        <v>14913446</v>
       </c>
       <c r="AW93" s="13" t="n">
-        <v>14913446</v>
+        <v>14292192</v>
       </c>
       <c r="AX93" s="13" t="n">
-        <v>14292192</v>
+        <v>12362820</v>
       </c>
       <c r="AY93" s="13" t="n">
-        <v>12362820</v>
+        <v>13355472</v>
       </c>
       <c r="AZ93" s="13" t="n">
-        <v>13355472</v>
+        <v>15168362</v>
       </c>
       <c r="BA93" s="13" t="n">
-        <v>15168362</v>
+        <v>17969955</v>
       </c>
       <c r="BB93" s="13" t="n">
-        <v>17265862</v>
+        <v>16080554</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14031,98 +14031,98 @@
       <c r="W94" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X94" s="16" t="s">
-        <v>58</v>
+      <c r="X94" s="16" t="n">
+        <v>32181174</v>
       </c>
       <c r="Y94" s="16" t="n">
-        <v>32181174</v>
+        <v>36099709</v>
       </c>
       <c r="Z94" s="16" t="n">
-        <v>36099709</v>
+        <v>39235249</v>
       </c>
       <c r="AA94" s="16" t="n">
-        <v>39235249</v>
+        <v>40843196</v>
       </c>
       <c r="AB94" s="16" t="n">
-        <v>40843196</v>
+        <v>40782005</v>
       </c>
       <c r="AC94" s="16" t="n">
-        <v>40782005</v>
+        <v>36036705</v>
       </c>
       <c r="AD94" s="16" t="n">
-        <v>36036705</v>
+        <v>30628563</v>
       </c>
       <c r="AE94" s="16" t="n">
-        <v>30628563</v>
+        <v>40395801</v>
       </c>
       <c r="AF94" s="16" t="n">
-        <v>40395801</v>
+        <v>45439641</v>
       </c>
       <c r="AG94" s="16" t="n">
-        <v>45439641</v>
+        <v>35516675</v>
       </c>
       <c r="AH94" s="16" t="n">
-        <v>35516675</v>
+        <v>45166515</v>
       </c>
       <c r="AI94" s="16" t="n">
-        <v>45166515</v>
+        <v>45856853</v>
       </c>
       <c r="AJ94" s="16" t="n">
-        <v>45856853</v>
+        <v>36091668</v>
       </c>
       <c r="AK94" s="16" t="n">
-        <v>36091668</v>
+        <v>37487266</v>
       </c>
       <c r="AL94" s="16" t="n">
-        <v>37487266</v>
+        <v>42992299</v>
       </c>
       <c r="AM94" s="16" t="n">
-        <v>42992299</v>
+        <v>47178058</v>
       </c>
       <c r="AN94" s="16" t="n">
-        <v>47178058</v>
+        <v>46337589</v>
       </c>
       <c r="AO94" s="16" t="n">
-        <v>46337589</v>
+        <v>51664679</v>
       </c>
       <c r="AP94" s="16" t="n">
-        <v>51664679</v>
+        <v>54755051</v>
       </c>
       <c r="AQ94" s="16" t="n">
-        <v>54755051</v>
+        <v>56799738</v>
       </c>
       <c r="AR94" s="16" t="n">
-        <v>56799738</v>
+        <v>59831808</v>
       </c>
       <c r="AS94" s="16" t="n">
-        <v>59831808</v>
+        <v>59685817</v>
       </c>
       <c r="AT94" s="16" t="n">
-        <v>59685817</v>
+        <v>55934746</v>
       </c>
       <c r="AU94" s="16" t="n">
-        <v>55934746</v>
+        <v>69733817</v>
       </c>
       <c r="AV94" s="16" t="n">
-        <v>69733817</v>
+        <v>47117551</v>
       </c>
       <c r="AW94" s="16" t="n">
-        <v>47117551</v>
+        <v>57178654</v>
       </c>
       <c r="AX94" s="16" t="n">
-        <v>57178654</v>
+        <v>52136168</v>
       </c>
       <c r="AY94" s="16" t="n">
-        <v>52136168</v>
+        <v>70322080</v>
       </c>
       <c r="AZ94" s="16" t="n">
-        <v>70322080</v>
+        <v>56784801</v>
       </c>
       <c r="BA94" s="16" t="n">
-        <v>56784801</v>
+        <v>93548659</v>
       </c>
       <c r="BB94" s="16" t="n">
-        <v>94657039</v>
+        <v>100323038</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14196,92 +14196,92 @@
       <c r="Y95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z95" s="13" t="s">
-        <v>58</v>
+      <c r="Z95" s="13" t="n">
+        <v>746248</v>
       </c>
       <c r="AA95" s="13" t="n">
-        <v>746248</v>
+        <v>809961</v>
       </c>
       <c r="AB95" s="13" t="n">
-        <v>809961</v>
+        <v>929089</v>
       </c>
       <c r="AC95" s="13" t="n">
-        <v>929089</v>
+        <v>925556</v>
       </c>
       <c r="AD95" s="13" t="n">
-        <v>925556</v>
+        <v>1031682</v>
       </c>
       <c r="AE95" s="13" t="n">
-        <v>1031682</v>
+        <v>1025003</v>
       </c>
       <c r="AF95" s="13" t="n">
-        <v>1025003</v>
+        <v>1024356</v>
       </c>
       <c r="AG95" s="13" t="n">
-        <v>1024356</v>
+        <v>1032808</v>
       </c>
       <c r="AH95" s="13" t="n">
-        <v>1032808</v>
+        <v>1031649</v>
       </c>
       <c r="AI95" s="13" t="n">
-        <v>1031649</v>
+        <v>1026096</v>
       </c>
       <c r="AJ95" s="13" t="n">
-        <v>1026096</v>
+        <v>1036944</v>
       </c>
       <c r="AK95" s="13" t="n">
-        <v>1036944</v>
+        <v>1018575</v>
       </c>
       <c r="AL95" s="13" t="n">
-        <v>1018575</v>
+        <v>1063467</v>
       </c>
       <c r="AM95" s="13" t="n">
-        <v>1063467</v>
+        <v>1122024</v>
       </c>
       <c r="AN95" s="13" t="n">
-        <v>1122024</v>
+        <v>1170233</v>
       </c>
       <c r="AO95" s="13" t="n">
-        <v>1170233</v>
+        <v>1136135</v>
       </c>
       <c r="AP95" s="13" t="n">
-        <v>1136135</v>
+        <v>1460188</v>
       </c>
       <c r="AQ95" s="13" t="n">
-        <v>1460188</v>
+        <v>1249984</v>
       </c>
       <c r="AR95" s="13" t="n">
-        <v>1249984</v>
+        <v>1388365</v>
       </c>
       <c r="AS95" s="13" t="n">
-        <v>1388365</v>
+        <v>1388129</v>
       </c>
       <c r="AT95" s="13" t="n">
-        <v>1388129</v>
-      </c>
-      <c r="AU95" s="13" t="n">
         <v>1315731</v>
       </c>
+      <c r="AU95" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW95" s="13" t="s">
-        <v>58</v>
+      <c r="AW95" s="13" t="n">
+        <v>1400000</v>
       </c>
       <c r="AX95" s="13" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="AY95" s="13" t="n">
         <v>1309721</v>
       </c>
-      <c r="AZ95" s="13" t="s">
-        <v>58</v>
+      <c r="AY95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ95" s="13" t="n">
+        <v>1438154</v>
       </c>
       <c r="BA95" s="13" t="n">
-        <v>1438154</v>
+        <v>1683865</v>
       </c>
       <c r="BB95" s="13" t="n">
-        <v>1652842</v>
+        <v>1790336</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14349,98 +14349,98 @@
       <c r="W96" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X96" s="16" t="s">
-        <v>58</v>
+      <c r="X96" s="16" t="n">
+        <v>83617647</v>
       </c>
       <c r="Y96" s="16" t="n">
-        <v>83617647</v>
+        <v>100537736</v>
       </c>
       <c r="Z96" s="16" t="n">
-        <v>100537736</v>
+        <v>101538462</v>
       </c>
       <c r="AA96" s="16" t="n">
-        <v>101538462</v>
+        <v>87953488</v>
       </c>
       <c r="AB96" s="16" t="n">
-        <v>87953488</v>
+        <v>91027778</v>
       </c>
       <c r="AC96" s="16" t="n">
-        <v>91027778</v>
+        <v>95384615</v>
       </c>
       <c r="AD96" s="16" t="n">
-        <v>95384615</v>
+        <v>122000000</v>
       </c>
       <c r="AE96" s="16" t="n">
-        <v>122000000</v>
+        <v>107655172</v>
       </c>
       <c r="AF96" s="16" t="n">
-        <v>107655172</v>
+        <v>114930233</v>
       </c>
       <c r="AG96" s="16" t="n">
-        <v>114930233</v>
+        <v>117200000</v>
       </c>
       <c r="AH96" s="16" t="n">
-        <v>117200000</v>
+        <v>111444444</v>
       </c>
       <c r="AI96" s="16" t="n">
-        <v>111444444</v>
+        <v>132205882</v>
       </c>
       <c r="AJ96" s="16" t="n">
-        <v>132205882</v>
+        <v>177916667</v>
       </c>
       <c r="AK96" s="16" t="n">
-        <v>177916667</v>
+        <v>130500000</v>
       </c>
       <c r="AL96" s="16" t="n">
-        <v>130500000</v>
+        <v>123681818</v>
       </c>
       <c r="AM96" s="16" t="n">
-        <v>123681818</v>
+        <v>120224490</v>
       </c>
       <c r="AN96" s="16" t="n">
-        <v>120224490</v>
+        <v>109568966</v>
       </c>
       <c r="AO96" s="16" t="n">
-        <v>109568966</v>
-      </c>
-      <c r="AP96" s="16" t="n">
         <v>108483146</v>
       </c>
-      <c r="AQ96" s="16" t="s">
-        <v>58</v>
+      <c r="AP96" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ96" s="16" t="n">
+        <v>150181818</v>
       </c>
       <c r="AR96" s="16" t="n">
-        <v>150181818</v>
+        <v>144543860</v>
       </c>
       <c r="AS96" s="16" t="n">
-        <v>144543860</v>
+        <v>162761194</v>
       </c>
       <c r="AT96" s="16" t="n">
-        <v>162761194</v>
+        <v>158815217</v>
       </c>
       <c r="AU96" s="16" t="n">
-        <v>158815217</v>
+        <v>140961039</v>
       </c>
       <c r="AV96" s="16" t="n">
-        <v>140961039</v>
+        <v>143729730</v>
       </c>
       <c r="AW96" s="16" t="n">
-        <v>143729730</v>
+        <v>131223077</v>
       </c>
       <c r="AX96" s="16" t="n">
-        <v>131223077</v>
+        <v>141417582</v>
       </c>
       <c r="AY96" s="16" t="n">
-        <v>141417582</v>
+        <v>152163636</v>
       </c>
       <c r="AZ96" s="16" t="n">
-        <v>152163636</v>
+        <v>177296296</v>
       </c>
       <c r="BA96" s="16" t="n">
-        <v>177296296</v>
+        <v>358058824</v>
       </c>
       <c r="BB96" s="16" t="n">
-        <v>358058824</v>
+        <v>207733333</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14634,11 +14634,11 @@
       <c r="AT98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV98" s="13" t="n">
+      <c r="AU98" s="13" t="n">
         <v>12207083</v>
+      </c>
+      <c r="AV98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW98" s="13" t="s">
         <v>58</v>
@@ -14805,11 +14805,11 @@
       <c r="AX99" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY99" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ99" s="16" t="n">
+      <c r="AY99" s="16" t="n">
         <v>75806283</v>
+      </c>
+      <c r="AZ99" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BA99" s="16" t="s">
         <v>58</v>
